--- a/biology/Zoologie/Isanophis_boonsongi/Isanophis_boonsongi.xlsx
+++ b/biology/Zoologie/Isanophis_boonsongi/Isanophis_boonsongi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isanophis boonsongi, unique représentant du genre Isanophis, est une espèce de serpents de la famille des Natricidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isanophis boonsongi, unique représentant du genre Isanophis, est une espèce de serpents de la famille des Natricidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Loei dans le nord-est de la Thaïlande[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Loei dans le nord-est de la Thaïlande,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur description[3] les auteurs indiquent que les spécimens en leur possession mesurent en moyenne 62 cm dont 10 cm pour la queue. Ce serpent a le dos pratiquement uniformément gris olivâtre, un peu plus clair sur les côtés et devenant presque blanc-crème sur les deux ou trois rangées d'écailles à l'arrière du cou. Sa face ventrale est généralement blanc-crème.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur description les auteurs indiquent que les spécimens en leur possession mesurent en moyenne 62 cm dont 10 cm pour la queue. Ce serpent a le dos pratiquement uniformément gris olivâtre, un peu plus clair sur les côtés et devenant presque blanc-crème sur les deux ou trois rangées d'écailles à l'arrière du cou. Sa face ventrale est généralement blanc-crème.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est nommée en l'honneur de Boonsong Lekagul qui a transmis plusieurs amphibiens et reptiles à l'université du Kansas.
 </t>
@@ -604,7 +622,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>David, Pauwels, Nguyen &amp; Vogel, 2015 : On the taxonomic status of the Thai endemic freshwater snake Parahelicops boonsongi, with the erection of a new genus (Squamata: Natricidae). Zootaxa, no 3948 (2), p. 203–217.
 Taylor &amp; Elbel, 1958 : Contribution to the herpetology of Thailand. University of Kansas Science Bulletin, vol. 38, no 2, p. 1033-1189 (texte intégral).</t>
